--- a/material/PCB Design/BOM/SmartTokens.xlsx
+++ b/material/PCB Design/BOM/SmartTokens.xlsx
@@ -3,12 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Documents\Github\SmartTokens\material\PCB Design\BOM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="34275" windowHeight="16515"/>
   </bookViews>
   <sheets>
     <sheet name="SmartTokens" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="SmartTokens" localSheetId="0">SmartTokens!#REF!</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -19,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
   <si>
     <t>Designator</t>
   </si>
@@ -51,36 +59,21 @@
     <t>Farnell</t>
   </si>
   <si>
-    <t>1885496</t>
-  </si>
-  <si>
     <t>C1, C7</t>
   </si>
   <si>
     <t>47pF 0402 NP0 50V ±5%</t>
   </si>
   <si>
-    <t>8819670</t>
-  </si>
-  <si>
     <t>C2</t>
   </si>
   <si>
     <t>10uF 0603 X5R 6.3V ±20%</t>
   </si>
   <si>
-    <t>1833804</t>
-  </si>
-  <si>
-    <t>C3, C4, C5, C8, C9, C10, C15, C16, C18</t>
-  </si>
-  <si>
     <t>100nF 0402 X7R 16V ±10%</t>
   </si>
   <si>
-    <t>1288252</t>
-  </si>
-  <si>
     <t>C6, C19</t>
   </si>
   <si>
@@ -90,30 +83,18 @@
     <t>10nF 0402 X7R 25V ±5%</t>
   </si>
   <si>
-    <t>1692285</t>
-  </si>
-  <si>
     <t>C11, C12</t>
   </si>
   <si>
     <t>15pF 0402 NP0 50V ±5%</t>
   </si>
   <si>
-    <t>1414577</t>
-  </si>
-  <si>
-    <t>C13, C14</t>
-  </si>
-  <si>
     <t>1uF</t>
   </si>
   <si>
     <t>1uF 0603 X5R 10V ±10%</t>
   </si>
   <si>
-    <t>1759399</t>
-  </si>
-  <si>
     <t>C17</t>
   </si>
   <si>
@@ -123,9 +104,6 @@
     <t>10uF 0603 TANTALUM 10V ±20%</t>
   </si>
   <si>
-    <t>2408423</t>
-  </si>
-  <si>
     <t>L1</t>
   </si>
   <si>
@@ -153,72 +131,18 @@
     <t>490-6758-1-ND</t>
   </si>
   <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>HEADER 4X2+1 0.05"</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>P2, P3</t>
-  </si>
-  <si>
-    <t>HEADER 2X1 0.05" UNPOLARIZED</t>
-  </si>
-  <si>
-    <t>P4</t>
-  </si>
-  <si>
-    <t>HEADER 1X1 0.05"</t>
-  </si>
-  <si>
     <t>R1</t>
   </si>
   <si>
     <t>43K 0402 1/16W ±1%</t>
   </si>
   <si>
-    <t>1358086</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>2.7M 0402 1/16W ±1%</t>
-  </si>
-  <si>
-    <t>2141481</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>2.21M 0402 1/16W ±1%</t>
-  </si>
-  <si>
-    <t>2141080</t>
-  </si>
-  <si>
-    <t>R4, R5, R7, R8, R9, R10, R11, R12</t>
-  </si>
-  <si>
     <t>10K 0402 1/16W ±1%</t>
   </si>
   <si>
-    <t>2072517</t>
-  </si>
-  <si>
-    <t>R6</t>
-  </si>
-  <si>
     <t>100K 0402 1/16W ±1%</t>
   </si>
   <si>
-    <t>2072519</t>
-  </si>
-  <si>
     <t>U1</t>
   </si>
   <si>
@@ -228,9 +152,6 @@
     <t>IEEE802.15.4 Wireless Microcontroller</t>
   </si>
   <si>
-    <t>2341782</t>
-  </si>
-  <si>
     <t>U2</t>
   </si>
   <si>
@@ -243,18 +164,6 @@
     <t>497-10530-1-ND</t>
   </si>
   <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>MAX6775</t>
-  </si>
-  <si>
-    <t>Maxim Integrated Low-Power, 1%-Accurate Battery Monitor</t>
-  </si>
-  <si>
-    <t>MAX6775LTA+TCT-ND</t>
-  </si>
-  <si>
     <t>U4</t>
   </si>
   <si>
@@ -288,7 +197,25 @@
     <t>EPSON - TSX-3225, 32MHZ, 10PPM, 9PF - CRYSTAL, TSX-3225, 32MHZ, 10PPM, 9PF</t>
   </si>
   <si>
-    <t>1712845</t>
+    <t>C3, C4, C5, C8, C9, C10, C14, C16, C18</t>
+  </si>
+  <si>
+    <t>C13, C15</t>
+  </si>
+  <si>
+    <t>P2, P3, P4, P5, P6</t>
+  </si>
+  <si>
+    <t>TOUCH_ELECTRODE_PAD</t>
+  </si>
+  <si>
+    <t>Copper Pad to solder Touch Electrode</t>
+  </si>
+  <si>
+    <t>R2, R4, R6, R8, R9, R10, R11, R12</t>
+  </si>
+  <si>
+    <t>R5</t>
   </si>
 </sst>
 </file>
@@ -638,13 +565,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:H57"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="18" customWidth="1"/>
+    <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="73.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -683,468 +617,364 @@
       <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
+      <c r="F2" s="2">
+        <v>1885496</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>13</v>
+      <c r="F3" s="2">
+        <v>8819670</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>16</v>
+      <c r="F4" s="2">
+        <v>1833804</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="B5" s="3">
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>19</v>
+      <c r="F5" s="2">
+        <v>1288252</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B6" s="3">
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>23</v>
+      <c r="F6" s="2">
+        <v>1692285</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3">
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>26</v>
+      <c r="F7" s="2">
+        <v>1414577</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="B8" s="3">
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>30</v>
+      <c r="F8" s="2">
+        <v>1759399</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B9" s="3">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>34</v>
+      <c r="F9" s="2">
+        <v>2408423</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B10" s="3">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B12" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>46</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B13" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>46</v>
+        <v>9</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1358086</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B14" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>46</v>
+        <v>9</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2072517</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>53</v>
+      <c r="F15" s="2">
+        <v>2072519</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>56</v>
+      <c r="F16" s="2">
+        <v>2341782</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B17" s="3">
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B18" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B19" s="3">
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B20" s="3">
         <v>1</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="3">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" s="3">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B23" s="3">
-        <v>1</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" s="3">
-        <v>1</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B25" s="3">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>89</v>
+      <c r="F20" s="2">
+        <v>1712845</v>
       </c>
     </row>
   </sheetData>

--- a/material/PCB Design/BOM/SmartTokens.xlsx
+++ b/material/PCB Design/BOM/SmartTokens.xlsx
@@ -3,12 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\PhD Projects\UIST15 - SmartTokens\PCB Designs\SmartTokens v2.0\SmartTokens\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34275" windowHeight="16515"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8820"/>
   </bookViews>
   <sheets>
-    <sheet name="SmartTokens" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="SmartTokens_1" localSheetId="0">Sheet1!$A$22:$G$43</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -18,8 +26,26 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="SmartTokens1" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr sourceFile="X:\PhD Projects\UIST15 - SmartTokens\PCB Designs\SmartTokens v2.0\SmartTokens\Project Outputs for SmartTokens\SmartTokens.csv" decimal="," thousands=" " comma="1">
+      <textFields count="7">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="62">
   <si>
     <t>Designator</t>
   </si>
@@ -27,9 +53,6 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>Comment</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -39,19 +62,25 @@
     <t>Supplier Part Number 1</t>
   </si>
   <si>
+    <t>Supplier 2</t>
+  </si>
+  <si>
+    <t>Supplier Part Number 2</t>
+  </si>
+  <si>
     <t>A1</t>
   </si>
   <si>
-    <t>2450AT18A100</t>
-  </si>
-  <si>
     <t>JOHANSON TECHNOLOGY  2450AT18A100E  ANTENNA, CERAMIC, 2.45GHZ</t>
   </si>
   <si>
     <t>Farnell</t>
   </si>
   <si>
-    <t>1885496</t>
+    <t>Digi-Key</t>
+  </si>
+  <si>
+    <t>712-1005-1-ND</t>
   </si>
   <si>
     <t>C1, C7</t>
@@ -60,7 +89,7 @@
     <t>47pF 0402 NP0 50V ±5%</t>
   </si>
   <si>
-    <t>8819670</t>
+    <t>445-1243-1-ND</t>
   </si>
   <si>
     <t>C2</t>
@@ -69,28 +98,25 @@
     <t>10uF 0603 X5R 6.3V ±20%</t>
   </si>
   <si>
-    <t>1833804</t>
-  </si>
-  <si>
-    <t>C3, C4, C5, C8, C9, C10, C15, C16, C18</t>
+    <t>478-5318-1-ND</t>
+  </si>
+  <si>
+    <t>C3, C4, C5, C8, C9, C10, C14, C16, C18</t>
   </si>
   <si>
     <t>100nF 0402 X7R 16V ±10%</t>
   </si>
   <si>
-    <t>1288252</t>
+    <t>399-3521-1-ND</t>
   </si>
   <si>
     <t>C6, C19</t>
   </si>
   <si>
-    <t>10nF</t>
-  </si>
-  <si>
     <t>10nF 0402 X7R 25V ±5%</t>
   </si>
   <si>
-    <t>1692285</t>
+    <t>399-1279-1-ND</t>
   </si>
   <si>
     <t>C11, C12</t>
@@ -99,196 +125,112 @@
     <t>15pF 0402 NP0 50V ±5%</t>
   </si>
   <si>
-    <t>1414577</t>
-  </si>
-  <si>
-    <t>C13, C14</t>
-  </si>
-  <si>
-    <t>1uF</t>
+    <t>399-1014-1-ND</t>
+  </si>
+  <si>
+    <t>C13, C15</t>
   </si>
   <si>
     <t>1uF 0603 X5R 10V ±10%</t>
   </si>
   <si>
-    <t>1759399</t>
+    <t>478-1251-1-ND</t>
   </si>
   <si>
     <t>C17</t>
   </si>
   <si>
-    <t>10uF TANTALUM</t>
-  </si>
-  <si>
     <t>10uF 0603 TANTALUM 10V ±20%</t>
   </si>
   <si>
-    <t>2408423</t>
+    <t>478-9527-1-ND</t>
   </si>
   <si>
     <t>L1</t>
   </si>
   <si>
-    <t>3.9NH  0402 MURATA</t>
-  </si>
-  <si>
     <t>MURATA - LQP15MN3N9B02D - 3.9NH ±0.1NH 0402</t>
   </si>
   <si>
-    <t>Digi-Key</t>
-  </si>
-  <si>
     <t>490-1131-1-ND</t>
   </si>
   <si>
     <t>L2</t>
   </si>
   <si>
-    <t>5.1NH  0402 MURATA</t>
-  </si>
-  <si>
     <t>MURATA - LQP15MN5N1B02D - 5.1NH ±0.1NH 0402</t>
   </si>
   <si>
     <t>490-6758-1-ND</t>
   </si>
   <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>HEADER 4X2+1 0.05"</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>P2, P3</t>
-  </si>
-  <si>
-    <t>HEADER 2X1 0.05" UNPOLARIZED</t>
-  </si>
-  <si>
-    <t>P4</t>
-  </si>
-  <si>
-    <t>HEADER 1X1 0.05"</t>
-  </si>
-  <si>
     <t>R1</t>
   </si>
   <si>
     <t>43K 0402 1/16W ±1%</t>
   </si>
   <si>
-    <t>1358086</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>2.7M 0402 1/16W ±1%</t>
-  </si>
-  <si>
-    <t>2141481</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>2.21M 0402 1/16W ±1%</t>
-  </si>
-  <si>
-    <t>2141080</t>
-  </si>
-  <si>
-    <t>R4, R5, R7, R8, R9, R10, R11, R12</t>
+    <t>541-43.0KLCT-ND</t>
+  </si>
+  <si>
+    <t>R2, R4, R6, R8, R9, R10, R11, R12</t>
   </si>
   <si>
     <t>10K 0402 1/16W ±1%</t>
   </si>
   <si>
-    <t>2072517</t>
-  </si>
-  <si>
-    <t>R6</t>
+    <t>541-10.0KLCT-ND</t>
+  </si>
+  <si>
+    <t>R5</t>
   </si>
   <si>
     <t>100K 0402 1/16W ±1%</t>
   </si>
   <si>
-    <t>2072519</t>
+    <t>541-100KLCT-ND</t>
   </si>
   <si>
     <t>U1</t>
   </si>
   <si>
-    <t>JN516X</t>
-  </si>
-  <si>
-    <t>IEEE802.15.4 Wireless Microcontroller</t>
-  </si>
-  <si>
-    <t>2341782</t>
-  </si>
-  <si>
     <t>U2</t>
   </si>
   <si>
-    <t>STLQ015XG33R</t>
-  </si>
-  <si>
     <t>STMicroelectronics 150 mA ultra low quiescent current linear voltage regulator</t>
   </si>
   <si>
     <t>497-10530-1-ND</t>
   </si>
   <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>MAX6775</t>
-  </si>
-  <si>
-    <t>Maxim Integrated Low-Power, 1%-Accurate Battery Monitor</t>
-  </si>
-  <si>
-    <t>MAX6775LTA+TCT-ND</t>
-  </si>
-  <si>
     <t>U4</t>
   </si>
   <si>
-    <t>AT42QT1070-MMH</t>
-  </si>
-  <si>
-    <t>Atmel Seven-channel QTouch® Touch Sensor IC</t>
-  </si>
-  <si>
     <t>AT42QT1070-MMHCT-ND</t>
   </si>
   <si>
     <t>U5</t>
   </si>
   <si>
-    <t>LSM6DS0</t>
-  </si>
-  <si>
-    <t>STMicroelectronics iNEMO inertial module:   3D accelerometer and 3D gyroscope</t>
-  </si>
-  <si>
     <t>497-14855-1-ND</t>
   </si>
   <si>
     <t>Y1</t>
   </si>
   <si>
-    <t>TSX-3225</t>
-  </si>
-  <si>
     <t>EPSON - TSX-3225, 32MHZ, 10PPM, 9PF - CRYSTAL, TSX-3225, 32MHZ, 10PPM, 9PF</t>
   </si>
   <si>
-    <t>1712845</t>
+    <t>NXP JN5168 IEEE802.15.4 Wireless Microcontroller</t>
+  </si>
+  <si>
+    <t>568-10145-1-ND</t>
+  </si>
+  <si>
+    <t>Atmel AT42QT1070 Seven-channel QTouch® Touch Sensor IC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STMicroelectronics LSM6DS0 iNEMO inertial module </t>
   </si>
 </sst>
 </file>
@@ -304,27 +246,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -332,32 +268,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -373,6 +290,26 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SmartTokens_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G19" totalsRowShown="0">
+  <autoFilter ref="A1:G19"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Designator"/>
+    <tableColumn id="2" name="Quantity"/>
+    <tableColumn id="3" name="Description"/>
+    <tableColumn id="4" name="Supplier 1"/>
+    <tableColumn id="5" name="Supplier Part Number 1"/>
+    <tableColumn id="6" name="Supplier 2"/>
+    <tableColumn id="7" name="Supplier Part Number 2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -638,517 +575,441 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="18" customWidth="1"/>
+    <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="73.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3">
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>1885496</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>8819670</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="3">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>1833804</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="3">
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>1288252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>1692285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>1414577</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>2</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>1759399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <v>2408423</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="s">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="2" t="s">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="3">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <v>1358086</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="2" t="s">
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="3">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13">
+        <v>2072517</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="3">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14">
+        <v>2072519</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15">
+        <v>2341782</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="3">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="3">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16">
+        <v>2311337</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="2" t="s">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="3">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="2" t="s">
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18">
+        <v>2462797</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="3">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="3">
-        <v>8</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" s="3">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="3">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="3">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" s="3">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B23" s="3">
-        <v>1</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" s="3">
-        <v>1</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B25" s="3">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>89</v>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19">
+        <v>1712845</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>